--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23505" windowHeight="12975"/>
+    <workbookView windowWidth="17865" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>索引</t>
   </si>
@@ -70,6 +70,9 @@
     <t>hit激活的检测区域</t>
   </si>
   <si>
+    <t>animStateInfo</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>HitDetect</t>
   </si>
   <si>
+    <t>AnimStateInfo</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Base Layer</t>
+  </si>
+  <si>
     <t>attack01_1</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>GhostSamurai_APose_Attack01_2_Root</t>
   </si>
   <si>
@@ -185,6 +197,60 @@
   </si>
   <si>
     <t>attack02_5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Lucy_Fist02_1_Root</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Lucy_Fist04_Root</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Lucy_Kick01_Root</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Lucy_Kick_Combo01_2_Root</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Lucy_Kick18_Root</t>
+  </si>
+  <si>
+    <t>attack01_5</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Lucy_Kick_Combo03_3_Root</t>
+  </si>
+  <si>
+    <t>attack01_6</t>
   </si>
 </sst>
 </file>
@@ -350,23 +416,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -687,7 +759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,16 +783,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -729,90 +801,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1129,261 +1204,438 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="17.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -21,7 +21,30 @@
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在attack动画开始时传入对应的string参数，去设置相应的动画事件
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>索引</t>
   </si>
@@ -115,10 +138,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Base Layer</t>
-  </si>
-  <si>
-    <t>attack01_1</t>
+    <t>sword.attack01_1</t>
   </si>
   <si>
     <t>2</t>
@@ -133,7 +153,7 @@
     <t>GhostSamurai_APose_Attack01_2_Root</t>
   </si>
   <si>
-    <t>attack01_2</t>
+    <t>sword.attack01_2</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Attack01_3_Root</t>
@@ -142,7 +162,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>attack01_3</t>
+    <t>sword.attack01_3</t>
   </si>
   <si>
     <t>1,1</t>
@@ -154,13 +174,13 @@
     <t>GhostSamurai_APose_Attack01_4_Root</t>
   </si>
   <si>
-    <t>attack01_4</t>
+    <t>sword.attack01_4</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Attack03_1_ALL_Root</t>
   </si>
   <si>
-    <t>attack02_1</t>
+    <t>sword.attack02_1</t>
   </si>
   <si>
     <t>5</t>
@@ -169,7 +189,7 @@
     <t>GhostSamurai_APose_Attack03_2_Root</t>
   </si>
   <si>
-    <t>attack02_2</t>
+    <t>sword.attack02_2</t>
   </si>
   <si>
     <t>6</t>
@@ -178,7 +198,7 @@
     <t>GhostSamurai_APose_Attack03_3_Root</t>
   </si>
   <si>
-    <t>attack02_3</t>
+    <t>sword.attack02_3</t>
   </si>
   <si>
     <t>7</t>
@@ -187,7 +207,7 @@
     <t>GhostSamurai_APose_Attack03_4_Root</t>
   </si>
   <si>
-    <t>attack02_4</t>
+    <t>sword.attack02_4</t>
   </si>
   <si>
     <t>8</t>
@@ -196,7 +216,7 @@
     <t>GhostSamurai_APose_Attack03_5_Root</t>
   </si>
   <si>
-    <t>attack02_5</t>
+    <t>sword.attack02_5</t>
   </si>
   <si>
     <t>9</t>
@@ -205,6 +225,9 @@
     <t>Lucy_Fist02_1_Root</t>
   </si>
   <si>
+    <t>fist.attack01_1</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -217,12 +240,18 @@
     <t>Lucy_Fist04_Root</t>
   </si>
   <si>
+    <t>fist.attack01_2</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>Lucy_Kick01_Root</t>
   </si>
   <si>
+    <t>fist.attack01_3</t>
+  </si>
+  <si>
     <t>3,3</t>
   </si>
   <si>
@@ -232,13 +261,16 @@
     <t>Lucy_Kick_Combo01_2_Root</t>
   </si>
   <si>
+    <t>fist.attack01_4</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
     <t>Lucy_Kick18_Root</t>
   </si>
   <si>
-    <t>attack01_5</t>
+    <t>fist.attack01_5</t>
   </si>
   <si>
     <t>3,2</t>
@@ -250,7 +282,7 @@
     <t>Lucy_Kick_Combo03_3_Root</t>
   </si>
   <si>
-    <t>attack01_6</t>
+    <t>fist.attack01_6</t>
   </si>
 </sst>
 </file>
@@ -416,12 +448,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1204,24 +1236,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="17.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="17.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,20 +1263,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1254,20 +1286,20 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1277,20 +1309,20 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1312,22 +1344,22 @@
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -1335,18 +1367,18 @@
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1356,24 +1388,24 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -1381,149 +1413,146 @@
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:8">
+    <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:8">
+    <row r="14" s="1" customFormat="1" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1533,109 +1562,109 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17865" windowHeight="10425"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>索引</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>fist.attack01_6</t>
+  </si>
+  <si>
+    <t>off.sp01</t>
+  </si>
+  <si>
+    <t>ComboStart(int num)</t>
+  </si>
+  <si>
+    <t>combo最大连击数，超过这个数，自动置成combo = 1</t>
+  </si>
+  <si>
+    <t>AttackStart(string attackName)</t>
   </si>
 </sst>
 </file>
@@ -1236,20 +1248,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1665,6 +1677,11 @@
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1678,14 +1695,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1701,7 +1736,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="17910" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>索引</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>fist.attack01_6</t>
-  </si>
-  <si>
-    <t>off.sp01</t>
   </si>
   <si>
     <t>ComboStart(int num)</t>
@@ -1248,20 +1245,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.7583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1677,11 +1674,6 @@
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1701,23 +1693,23 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1728,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="10050"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1248,17 +1248,17 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.7583333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7583333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1693,10 +1693,10 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.275" customWidth="1"/>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1728,7 +1728,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="23535" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,12 +68,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  leftHand = 0,
+    rightHand = 1,
+    letfFoot = 2,
+    rightFoot = 3,
+    //前四个属于fist的
+    sword = 4,
+    //这个属于sword
+    arm02 = 5,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+特殊动画时间参数
+一些动画需要特殊参数，可以到脚本查看
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
   <si>
     <t>索引</t>
   </si>
@@ -96,6 +149,9 @@
     <t>animStateInfo</t>
   </si>
   <si>
+    <t>特殊动画时间参数</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -117,6 +173,9 @@
     <t>AnimStateInfo</t>
   </si>
   <si>
+    <t>SpAttackPar</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -129,6 +188,9 @@
     <t>string[]</t>
   </si>
   <si>
+    <t>float[]</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -219,6 +281,15 @@
     <t>sword.attack02_5</t>
   </si>
   <si>
+    <t>GhostSamurai_APose_JumpAttack01_Root_1_kk</t>
+  </si>
+  <si>
+    <t>sword.sp01</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -232,9 +303,6 @@
   </si>
   <si>
     <t>0,1</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>Lucy_Fist04_Root</t>
@@ -1245,24 +1313,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.7583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1284,396 +1353,473 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:8">
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1693,23 +1839,23 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1874,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="11700"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>索引</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>fist.attack01_6</t>
+  </si>
+  <si>
+    <t>GhostSamurai_APose_Air_Attack03_Start_Root_kk</t>
+  </si>
+  <si>
+    <t>sword.sp11</t>
   </si>
   <si>
     <t>ComboStart(int num)</t>
@@ -525,12 +531,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1313,21 +1319,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.7583333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7583333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.2545454545455" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1820,6 +1826,29 @@
       </c>
       <c r="H19" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1839,23 +1868,23 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.275" customWidth="1"/>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1903,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -531,18 +531,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,7 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,16 +910,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -916,96 +928,102 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,330 +1340,330 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.2545454545455" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="45.8727272727273" style="3" customWidth="1"/>
+    <col min="3" max="4" width="17.7545454545455" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.2545454545455" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1656,7 +1674,7 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1665,189 +1683,189 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>61</v>
       </c>
     </row>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>索引</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>sword.sp11</t>
+  </si>
+  <si>
+    <t>air.attack01_1</t>
   </si>
   <si>
     <t>ComboStart(int num)</t>
@@ -542,7 +545,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +883,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,16 +907,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -928,89 +925,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,9 +1018,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1674,7 +1668,7 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1683,10 +1677,10 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1867,6 +1861,11 @@
       </c>
       <c r="H20" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1894,15 +1893,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="21375" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
   <si>
     <t>索引</t>
   </si>
@@ -353,13 +353,43 @@
     <t>fist.attack01_6</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>GhostSamurai_APose_Air_Attack03_Start_Root_kk</t>
   </si>
   <si>
-    <t>sword.sp11</t>
+    <t>air.sp11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>GhostSamurai_APose_Air_Attack01_1_Root</t>
   </si>
   <si>
     <t>air.attack01_1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>GhostSamurai_APose_Air_Attack01_2_Root</t>
+  </si>
+  <si>
+    <t>air.attack01_2</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>air.attack01_3</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>air.attack01_4</t>
   </si>
   <si>
     <t>ComboStart(int num)</t>
@@ -545,7 +575,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +919,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,16 +943,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -925,89 +961,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1051,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1331,333 +1370,333 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="45.8727272727273" style="3" customWidth="1"/>
-    <col min="3" max="4" width="17.7545454545455" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.2545454545455" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="59.25" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17.7583333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7583333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.2583333333333" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1703,10 +1742,10 @@
       <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1729,10 +1768,10 @@
       <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1755,10 +1794,10 @@
       <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1781,10 +1820,10 @@
       <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1807,10 +1846,10 @@
       <c r="F18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1833,22 +1872,25 @@
       <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="3" t="s">
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>76</v>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -1856,16 +1898,115 @@
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="3" t="s">
-        <v>77</v>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1882,26 +2023,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +2061,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21375" windowHeight="10950"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1373,18 +1373,18 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="59.25" style="4" customWidth="1"/>
-    <col min="3" max="4" width="17.7583333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7583333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.2583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.2545454545455" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17.7545454545455" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2026,10 +2026,10 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.275" customWidth="1"/>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2061,7 +2061,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PC</author>
+    <author>23633</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0">
@@ -121,12 +122,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>23633:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相对于自身的攻击方向
+x，y，z表示
+0,0,1表示正前方
+如果写-1，表示用武器的weapondirection</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
   <si>
     <t>索引</t>
   </si>
@@ -152,6 +178,9 @@
     <t>特殊动画时间参数</t>
   </si>
   <si>
+    <t>攻击方向</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -174,6 +203,9 @@
   </si>
   <si>
     <t>SpAttackPar</t>
+  </si>
+  <si>
+    <t>AttackDirection</t>
   </si>
   <si>
     <t>int</t>
@@ -1370,13 +1402,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="59.2545454545455" style="4" customWidth="1"/>
@@ -1385,10 +1417,11 @@
     <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="14.3636363636364" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1413,600 +1446,672 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:9">
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:8">
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2034,15 +2139,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="97">
   <si>
     <t>索引</t>
   </si>
@@ -244,12 +244,18 @@
     <t>-1</t>
   </si>
   <si>
+    <t>-0.46,-0.58,0.67</t>
+  </si>
+  <si>
     <t>GhostSamurai_APose_Attack01_2_Root</t>
   </si>
   <si>
     <t>sword.attack01_2</t>
   </si>
   <si>
+    <t>1.00,-0.01,-0.04</t>
+  </si>
+  <si>
     <t>GhostSamurai_APose_Attack01_3_Root</t>
   </si>
   <si>
@@ -265,10 +271,16 @@
     <t>4,4</t>
   </si>
   <si>
+    <t>-0.86,0.51,-0.02,0.81,0.58,-0.05</t>
+  </si>
+  <si>
     <t>GhostSamurai_APose_Attack01_4_Root</t>
   </si>
   <si>
     <t>sword.attack01_4</t>
+  </si>
+  <si>
+    <t>0.97,0.16,0.21</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Attack03_1_ALL_Root</t>
@@ -1404,8 +1416,8 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1417,7 +1429,7 @@
     <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.3636363636364" style="4" customWidth="1"/>
+    <col min="9" max="9" width="32.1818181818182" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1534,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1542,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>27</v>
@@ -1563,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1571,19 +1583,19 @@
         <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -1592,21 +1604,21 @@
         <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -1621,7 +1633,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1629,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>23</v>
@@ -1655,16 +1667,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>23</v>
@@ -1684,16 +1696,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>23</v>
@@ -1713,16 +1725,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>23</v>
@@ -1742,16 +1754,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
@@ -1771,13 +1783,13 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="2:9">
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>27</v>
@@ -1789,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>29</v>
@@ -1797,22 +1809,22 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
@@ -1826,22 +1838,22 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>29</v>
@@ -1855,22 +1867,22 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
@@ -1884,16 +1896,16 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1913,22 +1925,22 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>29</v>
@@ -1942,22 +1954,22 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>29</v>
@@ -1971,16 +1983,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -1992,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>29</v>
@@ -2000,16 +2012,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>27</v>
@@ -2029,16 +2041,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>27</v>
@@ -2058,16 +2070,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -2087,16 +2099,16 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:9">
       <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
@@ -2139,15 +2151,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="25620" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>索引</t>
   </si>
@@ -181,6 +181,9 @@
     <t>攻击方向</t>
   </si>
   <si>
+    <t>受击特效</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>AttackDirection</t>
+  </si>
+  <si>
+    <t>hittedEffect</t>
   </si>
   <si>
     <t>int</t>
@@ -1414,26 +1420,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="59.2545454545455" style="4" customWidth="1"/>
-    <col min="3" max="4" width="17.7545454545455" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
-    <col min="9" max="9" width="32.1818181818182" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="59.2583333333333" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17.7583333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7583333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.2583333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="32.1833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1461,669 +1468,678 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:9">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:9">
       <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2143,23 +2159,23 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2194,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="12870"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
   <si>
     <t>索引</t>
   </si>
@@ -251,6 +264,9 @@
   </si>
   <si>
     <t>-0.46,-0.58,0.67</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Attack01_2_Root</t>
@@ -454,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1423,20 +1439,20 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="59.2583333333333" style="4" customWidth="1"/>
-    <col min="3" max="4" width="17.7583333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7583333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.2583333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="32.1833333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.2545454545455" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17.7545454545455" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
+    <col min="9" max="9" width="32.1818181818182" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.7545454545455" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1536,7 +1552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1564,19 +1580,22 @@
       <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>29</v>
@@ -1591,50 +1610,56 @@
         <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>29</v>
@@ -1649,21 +1674,24 @@
         <v>31</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -1680,19 +1708,22 @@
       <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
@@ -1709,19 +1740,22 @@
       <c r="I9" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>25</v>
@@ -1738,19 +1772,22 @@
       <c r="I10" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>25</v>
@@ -1767,19 +1804,22 @@
       <c r="I11" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>25</v>
@@ -1796,16 +1836,19 @@
       <c r="I12" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:9">
+      <c r="J12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:10">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -1817,30 +1860,33 @@
         <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="J13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>31</v>
@@ -1851,25 +1897,28 @@
       <c r="I14" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="J14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>31</v>
@@ -1880,25 +1929,28 @@
       <c r="I15" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="J15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>31</v>
@@ -1909,19 +1961,22 @@
       <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:9">
+      <c r="J16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
@@ -1938,25 +1993,28 @@
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:9">
+      <c r="J17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>31</v>
@@ -1967,25 +2025,28 @@
       <c r="I18" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:9">
+      <c r="J18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>31</v>
@@ -1996,19 +2057,22 @@
       <c r="I19" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -2020,24 +2084,27 @@
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>29</v>
@@ -2054,19 +2121,22 @@
       <c r="I21" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>29</v>
@@ -2083,19 +2153,22 @@
       <c r="I22" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:9">
+      <c r="J22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>29</v>
@@ -2112,19 +2185,22 @@
       <c r="I23" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:9">
+      <c r="J23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>29</v>
@@ -2140,6 +2216,9 @@
       </c>
       <c r="I24" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2159,23 +2238,23 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.275" customWidth="1"/>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2273,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="21280" windowHeight="9260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="101">
   <si>
     <t>索引</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>sword.attack02_5</t>
+  </si>
+  <si>
+    <t>1,3</t>
   </si>
   <si>
     <t>GhostSamurai_APose_JumpAttack01_Root_1_kk</t>
@@ -630,12 +633,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1439,7 +1442,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1822,7 +1825,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -1842,13 +1845,13 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="2:10">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -1860,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>31</v>
@@ -1871,22 +1874,22 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>31</v>
@@ -1903,22 +1906,22 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>31</v>
@@ -1935,22 +1938,22 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>31</v>
@@ -1967,16 +1970,16 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
@@ -1999,22 +2002,22 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>31</v>
@@ -2031,16 +2034,16 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
@@ -2063,16 +2066,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -2084,7 +2087,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>31</v>
@@ -2095,16 +2098,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>29</v>
@@ -2127,16 +2130,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>29</v>
@@ -2159,16 +2162,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>29</v>
@@ -2191,16 +2194,16 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>29</v>
@@ -2246,15 +2249,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21280" windowHeight="9260"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>索引</t>
   </si>
@@ -461,6 +461,18 @@
     <t>air.attack01_4</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Execeute01_back</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Execeute02_forward</t>
+  </si>
+  <si>
     <t>ComboStart(int num)</t>
   </si>
   <si>
@@ -468,6 +480,27 @@
   </si>
   <si>
     <t>AttackStart(string attackName)</t>
+  </si>
+  <si>
+    <t>HitStart()</t>
+  </si>
+  <si>
+    <t>HitReStart()</t>
+  </si>
+  <si>
+    <t>非必需</t>
+  </si>
+  <si>
+    <t>HitEnd()</t>
+  </si>
+  <si>
+    <t>非必需，attackend会调用</t>
+  </si>
+  <si>
+    <t>AttackEnd()</t>
+  </si>
+  <si>
+    <t>CanGetInput()</t>
   </si>
 </sst>
 </file>
@@ -633,12 +666,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1439,17 +1472,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="59.2545454545455" style="4" customWidth="1"/>
-    <col min="3" max="4" width="17.7545454545455" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.7545454545455" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.3636363636364" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.1272727272727" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
@@ -2224,6 +2258,70 @@
         <v>33</v>
       </c>
     </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2235,29 +2333,60 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="28.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -1474,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1490,7 +1490,8 @@
     <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
     <col min="9" max="9" width="32.1818181818182" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.7545454545455" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="11" max="11" width="18" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="28590" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AiBehavior" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
   <si>
     <t>索引</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>Execeute02_forward</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>ComboStart(int num)</t>
@@ -666,12 +675,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1149,6 +1158,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1156,9 +1168,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,852 +1483,852 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="59.2545454545455" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.7545454545455" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.3636363636364" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.2545454545455" style="4" customWidth="1"/>
-    <col min="9" max="9" width="32.1818181818182" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.7545454545455" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="59.2583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7583333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2583333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7583333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:10">
-      <c r="B13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="2:10">
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:10">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="3" customFormat="1" spans="1:10">
+      <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:10">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="3" customFormat="1" spans="1:10">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="2" t="s">
+    <row r="16" s="3" customFormat="1" spans="1:10">
+      <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:10">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="3" customFormat="1" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:10">
-      <c r="A18" s="2" t="s">
+    <row r="18" s="3" customFormat="1" spans="1:10">
+      <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:10">
-      <c r="A19" s="2" t="s">
+    <row r="19" s="3" customFormat="1" spans="1:10">
+      <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:10">
-      <c r="A23" s="2" t="s">
+    <row r="23" s="4" customFormat="1" spans="1:10">
+      <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:10">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="4" customFormat="1" spans="1:10">
+      <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="G24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="G25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2336,58 +2345,66 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="28.5454545454545" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>105</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>106</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>111</v>
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2400,14 +2417,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.5416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28590" windowHeight="11970" activeTab="1"/>
+    <workbookView windowWidth="22680" windowHeight="11265"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AnimationConfig" sheetId="1" r:id="rId1"/>
     <sheet name="AiBehavior" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -224,7 +224,7 @@
     <t>AttackDirection</t>
   </si>
   <si>
-    <t>hittedEffect</t>
+    <t>HittedEffect</t>
   </si>
   <si>
     <t>int</t>
@@ -675,12 +675,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1483,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2345,7 +2345,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22680" windowHeight="11265"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="AnimationConfig" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
   <si>
     <t>索引</t>
   </si>
@@ -263,7 +263,7 @@
     <t>-1</t>
   </si>
   <si>
-    <t>-0.46,-0.58,0.67</t>
+    <t>-0.468079,-0.5319471,0.705645</t>
   </si>
   <si>
     <t>null</t>
@@ -311,6 +311,9 @@
     <t>sword.attack02_1</t>
   </si>
   <si>
+    <t>-0.38,-0.78,0.49</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
     <t>sword.attack02_2</t>
   </si>
   <si>
+    <t>0.59,0.49,0.64</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -329,6 +335,9 @@
     <t>sword.attack02_3</t>
   </si>
   <si>
+    <t>-0.95,0.00,0.31</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
     <t>sword.attack02_4</t>
   </si>
   <si>
+    <t>0.13,0.10,0.99</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
   </si>
   <si>
     <t>1,3</t>
+  </si>
+  <si>
+    <t>0.89,-0.35,0.31,0.62,-0.58,0.52</t>
   </si>
   <si>
     <t>GhostSamurai_APose_JumpAttack01_Root_1_kk</t>
@@ -1484,21 +1499,21 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="59.2583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.3666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2583333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.2545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2545454545455" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1818181818182" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7545454545455" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -1753,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
@@ -1761,16 +1776,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1785,7 +1800,7 @@
         <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
@@ -1793,16 +1808,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -1817,7 +1832,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
@@ -1825,16 +1840,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1849,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
@@ -1857,19 +1872,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>30</v>
@@ -1881,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
@@ -1889,13 +1904,13 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="2:10">
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -1907,7 +1922,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>31</v>
@@ -1918,22 +1933,22 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>31</v>
@@ -1950,22 +1965,22 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>31</v>
@@ -1982,22 +1997,22 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>31</v>
@@ -2014,16 +2029,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>29</v>
@@ -2046,22 +2061,22 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>31</v>
@@ -2078,16 +2093,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>29</v>
@@ -2110,16 +2125,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>29</v>
@@ -2131,7 +2146,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>31</v>
@@ -2142,16 +2157,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -2174,16 +2189,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
@@ -2206,16 +2221,16 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>29</v>
@@ -2238,16 +2253,16 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -2270,16 +2285,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
@@ -2302,16 +2317,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
@@ -2349,22 +2364,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2423,54 +2438,54 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="28.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="28.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="126">
   <si>
     <t>索引</t>
   </si>
@@ -365,6 +365,9 @@
     <t>0.89,-0.35,0.31,0.62,-0.58,0.52</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>GhostSamurai_APose_JumpAttack01_Root_1_kk</t>
   </si>
   <si>
@@ -374,9 +377,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Lucy_Fist02_1_Root</t>
   </si>
   <si>
@@ -389,13 +389,16 @@
     <t>0,1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Lucy_Fist04_Root</t>
   </si>
   <si>
     <t>fist.attack01_2</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>Lucy_Kick01_Root</t>
@@ -407,7 +410,7 @@
     <t>3,3</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>Lucy_Kick_Combo01_2_Root</t>
@@ -416,7 +419,7 @@
     <t>fist.attack01_4</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Lucy_Kick18_Root</t>
@@ -428,7 +431,7 @@
     <t>3,2</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Lucy_Kick_Combo03_3_Root</t>
@@ -437,7 +440,7 @@
     <t>fist.attack01_6</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Air_Attack03_Start_Root_kk</t>
@@ -446,7 +449,7 @@
     <t>air.sp11</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Air_Attack01_1_Root</t>
@@ -455,7 +458,7 @@
     <t>air.attack01_1</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>GhostSamurai_APose_Air_Attack01_2_Root</t>
@@ -464,28 +467,43 @@
     <t>air.attack01_2</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>air.attack01_3</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>air.attack01_4</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Execeute01_back</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Execeute02_forward</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>1,1,2</t>
+  </si>
+  <si>
+    <t>4,4,4</t>
+  </si>
+  <si>
+    <t>-0.95,-0.22,0.22,0.68,0.69,0.24,-0.87,-0.38,-0.33</t>
   </si>
   <si>
     <t>AAA</t>
@@ -690,12 +708,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1496,10 +1514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1902,15 +1920,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:10">
+    <row r="13" s="2" customFormat="1" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -1922,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>31</v>
@@ -1932,7 +1953,7 @@
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:10">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1964,17 +1985,17 @@
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>68</v>
+      <c r="A15" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>72</v>
@@ -1996,23 +2017,23 @@
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>76</v>
+      <c r="A16" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>31</v>
@@ -2028,17 +2049,17 @@
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>80</v>
+      <c r="A17" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>29</v>
@@ -2060,23 +2081,23 @@
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:10">
-      <c r="A18" s="3" t="s">
-        <v>83</v>
+      <c r="A18" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>31</v>
@@ -2092,17 +2113,17 @@
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:10">
-      <c r="A19" s="3" t="s">
-        <v>87</v>
+      <c r="A19" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>29</v>
@@ -2124,17 +2145,17 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
-        <v>90</v>
+      <c r="A20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>29</v>
@@ -2146,7 +2167,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>31</v>
@@ -2156,17 +2177,17 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3" t="s">
-        <v>93</v>
+      <c r="A21" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -2188,17 +2209,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>96</v>
+      <c r="A22" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
@@ -2220,17 +2241,17 @@
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:10">
-      <c r="A23" s="3" t="s">
-        <v>99</v>
+      <c r="A23" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>29</v>
@@ -2252,17 +2273,17 @@
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:10">
-      <c r="A24" s="3" t="s">
-        <v>101</v>
+      <c r="A24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -2284,17 +2305,17 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
-        <v>103</v>
+      <c r="A25" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
@@ -2316,17 +2337,17 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
-        <v>105</v>
+      <c r="A26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
@@ -2344,6 +2365,38 @@
         <v>31</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2371,15 +2424,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2446,46 +2499,46 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/New Unity Project/Assets/Editor/Data.xlsx
+++ b/New Unity Project/Assets/Editor/Data.xlsx
@@ -708,12 +708,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1516,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
